--- a/reports/output.xlsx
+++ b/reports/output.xlsx
@@ -1157,7 +1157,7 @@
         <v>30</v>
       </c>
       <c r="Q1" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R1" t="s">
         <v>14</v>
